--- a/results_submaps/new_cu_diffgoal_path_0.2/30x30/new_cu_diffgoal_path_0.2_30x30_True_2_500.xlsx
+++ b/results_submaps/new_cu_diffgoal_path_0.2/30x30/new_cu_diffgoal_path_0.2_30x30_True_2_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,218 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26.886</v>
+      </c>
+      <c r="D14" t="n">
+        <v>402.026</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.14549304</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18234644.416</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.11276818</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.20143332</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.54187442</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.389023930457005</v>
+      </c>
+      <c r="K14" t="n">
+        <v>65.41304960110202</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.338025257771874</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6521921.218650043</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.02163876988212646</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.04825498426058783</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.074995770643459</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>43.792</v>
+      </c>
+      <c r="D15" t="n">
+        <v>642.004</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.33977116</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27555683.248</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.10412572</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.30250084</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.51638904</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.028765402698567</v>
+      </c>
+      <c r="K15" t="n">
+        <v>99.66933297595476</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1979011030465178</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9487486.102261616</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01570389910103701</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.05884070019376882</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.544064589209102</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="D16" t="n">
+        <v>395.364</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.1927889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>31197066.008</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1453059</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.14541756</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.01728986</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.684664639694368</v>
+      </c>
+      <c r="K16" t="n">
+        <v>72.45569100020117</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3715919961821612</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11093264.63146623</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02876172036068448</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.04663943911979666</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.68096522936903</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33.412</v>
+      </c>
+      <c r="D17" t="n">
+        <v>647.138</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.33553914</v>
+      </c>
+      <c r="F17" t="n">
+        <v>48918644.056</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.133752</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.22370094</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.72350346</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.919149318720945</v>
+      </c>
+      <c r="K17" t="n">
+        <v>109.8992203487656</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2174971694705837</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15225068.91508796</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01751580343403864</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.05141625244363006</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.214486784118169</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
